--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite RTI Scenario1201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite RTI Scenario1201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -459,9 +464,6 @@
     <t>Payroll Suite Statutory Adoption PaternityPay201718.xlsx</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\Statutory scenarios for 201718\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
-  </si>
-  <si>
     <t>TestReportWorksheetNo</t>
   </si>
   <si>
@@ -469,12 +471,15 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_RTI_TestReports201718\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,6 +601,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -643,7 +651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,9 +684,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,6 +736,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -893,15 +935,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -929,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -943,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -957,7 +999,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -971,7 +1013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -985,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -999,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -1026,13 +1068,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -1052,7 +1094,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>134</v>
       </c>
@@ -1075,27 +1117,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1286,7 +1328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>101</v>
       </c>
@@ -1488,14 +1530,14 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -1521,7 +1563,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>134</v>
       </c>
@@ -1550,27 +1592,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -1602,7 +1644,7 @@
         <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1614,7 +1656,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="18" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>142</v>
       </c>
@@ -1637,7 +1679,7 @@
         <v>135</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>137</v>
@@ -1646,7 +1688,7 @@
         <v>124</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>4</v>
@@ -1661,24 +1703,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -1710,7 +1752,7 @@
         <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1722,7 +1764,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="18" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>142</v>
       </c>
@@ -1736,7 +1778,7 @@
         <v>96</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>145</v>
@@ -1745,7 +1787,7 @@
         <v>135</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>138</v>
@@ -1754,7 +1796,7 @@
         <v>124</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>4</v>
